--- a/Ct.xlsx
+++ b/Ct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingfanghe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingfanghe/MyDirectory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F3B12-35FD-6647-8D3D-4ED0CD68937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8485F3-2DE9-114F-A441-5CCF5AA2CCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="820" windowWidth="27580" windowHeight="17420" firstSheet="1" activeTab="11" xr2:uid="{C6E3BC49-5BE1-514B-821C-202A293E71C7}"/>
+    <workbookView xWindow="2660" yWindow="820" windowWidth="27580" windowHeight="17420" firstSheet="1" activeTab="6" xr2:uid="{C6E3BC49-5BE1-514B-821C-202A293E71C7}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicTable" sheetId="2" r:id="rId1"/>
@@ -37,19 +37,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Q2 (6)'!$A$2:$J$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Q2 (7)'!$A$2:$J$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Q2 (8)'!$A$2:$L$14</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">BasicTable!$H$21:$H$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">BasicTable!$M$21:$M$30</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">BasicTable!$D$21:$D$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">BasicTable!$H$21:$H$30</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">BasicTable!$M$21:$M$30</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">BasicTable!$H$21:$H$30</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">BasicTable!$M$21:$M$30</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">BasicTable!$H$21:$H$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">BasicTable!$M$21:$M$30</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">BasicTable!$C$21:$C$24</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">BasicTable!$D$20</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -311,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -374,6 +363,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2532,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2FABB1-4D41-6F4A-846F-8700EBAA9E64}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4114,7 +4106,7 @@
         <v>1.87</v>
       </c>
       <c r="J5" s="11">
-        <f t="shared" ref="J4:J14" si="2">G5*I5</f>
+        <f t="shared" ref="J5:J14" si="2">G5*I5</f>
         <v>108.46000000000001</v>
       </c>
     </row>
@@ -5635,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD6C9AB-B9A5-8543-8DDB-5A6CA516E1F4}">
   <dimension ref="A2:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5720,10 +5712,10 @@
         <f>INT(F3)</f>
         <v>33</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="28">
         <f>MIN(G3:G14)</f>
         <v>28</v>
       </c>
@@ -5739,7 +5731,7 @@
         <v>58.410000000000004</v>
       </c>
       <c r="M3">
-        <f>IF(C3="Boston",1)</f>
+        <f t="shared" ref="M3:M14" si="0">IF(C3="Boston",1)</f>
         <v>1</v>
       </c>
       <c r="N3">
@@ -5771,13 +5763,13 @@
         <v>87</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ref="G4:G14" si="0">INT(F4)</f>
+        <f t="shared" ref="G4:G14" si="1">INT(F4)</f>
         <v>87</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="28">
         <f>MAX(G3:G14)</f>
         <v>149</v>
       </c>
@@ -5785,15 +5777,15 @@
         <v>3.49</v>
       </c>
       <c r="K4" s="10">
-        <f t="shared" ref="K4:K14" si="1">ROUND(J4,2)</f>
+        <f t="shared" ref="K4:K14" si="2">ROUND(J4,2)</f>
         <v>3.49</v>
       </c>
       <c r="L4" s="11">
-        <f t="shared" ref="L4:L14" si="2">G4*K4</f>
+        <f t="shared" ref="L4:L14" si="3">G4*K4</f>
         <v>303.63</v>
       </c>
       <c r="M4">
-        <f>IF(C4="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N4">
@@ -5801,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O14" si="3">IF(M4=N4,1)</f>
+        <f t="shared" ref="O4:O14" si="4">IF(M4=N4,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5825,7 +5817,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="H5" s="9"/>
@@ -5834,15 +5826,15 @@
         <v>1.87</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.87</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108.46000000000001</v>
       </c>
       <c r="M5" t="b">
-        <f>IF(C5="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
@@ -5850,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5874,7 +5866,7 @@
         <v>82</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H6" s="9"/>
@@ -5883,15 +5875,15 @@
         <v>1.87</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.87</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153.34</v>
       </c>
       <c r="M6" t="b">
-        <f>IF(C6="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
@@ -5899,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5923,7 +5915,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="H7" s="9"/>
@@ -5932,15 +5924,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82.84</v>
       </c>
       <c r="M7">
-        <f>IF(C7="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N7">
@@ -5948,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5972,7 +5964,7 @@
         <v>54</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="H8" s="9"/>
@@ -5981,15 +5973,15 @@
         <v>1.77</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.77</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95.58</v>
       </c>
       <c r="M8">
-        <f>IF(C8="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N8">
@@ -5997,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6021,7 +6013,7 @@
         <v>149</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149</v>
       </c>
       <c r="H9" s="9"/>
@@ -6030,15 +6022,15 @@
         <v>3.49</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.49</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520.01</v>
       </c>
       <c r="M9">
-        <f>IF(C9="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N9">
@@ -6046,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6070,7 +6062,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="H10" s="9"/>
@@ -6079,15 +6071,15 @@
         <v>1.77</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.77</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.27</v>
       </c>
       <c r="M10" t="b">
-        <f>IF(C10="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
@@ -6095,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6119,7 +6111,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H11" s="9"/>
@@ -6128,15 +6120,15 @@
         <v>1.77</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.77</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="M11" t="b">
-        <f>IF(C11="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11">
@@ -6144,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6168,7 +6160,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="H12" s="9"/>
@@ -6177,15 +6169,15 @@
         <v>1.35</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.800000000000004</v>
       </c>
       <c r="M12" t="b">
-        <f>IF(C12="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12">
@@ -6193,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6217,7 +6209,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="H13" s="9"/>
@@ -6226,15 +6218,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.48</v>
       </c>
       <c r="M13">
-        <f>IF(C13="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N13">
@@ -6242,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6266,7 +6258,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="H14" s="9"/>
@@ -6275,15 +6267,15 @@
         <v>1.87</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.87</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.970000000000006</v>
       </c>
       <c r="M14">
-        <f>IF(C14="Boston",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N14">
@@ -6291,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7170,7 +7162,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
-        <f t="shared" ref="H28:J28" si="3">SUM(J23:J27)</f>
+        <f t="shared" ref="J28" si="3">SUM(J23:J27)</f>
         <v>481.09000000000003</v>
       </c>
     </row>
@@ -7278,7 +7270,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3">
-        <f t="shared" ref="H33:J33" si="4">SUM(J31:J32)</f>
+        <f t="shared" ref="J33" si="4">SUM(J31:J32)</f>
         <v>823.64</v>
       </c>
     </row>
